--- a/Reports/AreDifferent/decryption_canalisation_byHouse2/decryption_canalisation_byHouse2.xlsx
+++ b/Reports/AreDifferent/decryption_canalisation_byHouse2/decryption_canalisation_byHouse2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="187">
   <si>
     <t>Утверждаю :</t>
   </si>
@@ -571,6 +571,25 @@
   </si>
   <si>
     <t>Справка по расчету субсидий на водоотведение</t>
+  </si>
+  <si>
+    <t>"=(U$R+V$R)*W$R-(U$R+V$R)*Y$R"</t>
+  </si>
+  <si>
+    <r>
+      <t>Размер субсидий к возмещению. Р</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>асчетная сумма для контроля (столбец удалить)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -584,7 +603,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0000_ ;[Red]\-#,##0.0000\ "/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -784,6 +803,36 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1142,7 +1191,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1334,137 +1383,7 @@
     <xf numFmtId="167" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -1498,27 +1417,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1569,6 +1472,180 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1879,10 +1956,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM65"/>
+  <dimension ref="A1:BN65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:AA28"/>
+    <sheetView tabSelected="1" topLeftCell="N5" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1891,772 +1968,791 @@
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="13" width="9" customWidth="1"/>
-    <col min="14" max="27" width="11.85546875" customWidth="1"/>
-    <col min="28" max="28" width="2.42578125" customWidth="1"/>
-    <col min="29" max="39" width="9.85546875" customWidth="1"/>
-    <col min="40" max="40" width="1.7109375" customWidth="1"/>
-    <col min="41" max="54" width="9.85546875" customWidth="1"/>
+    <col min="14" max="28" width="11.85546875" customWidth="1"/>
+    <col min="29" max="29" width="2.42578125" customWidth="1"/>
+    <col min="30" max="40" width="9.85546875" customWidth="1"/>
+    <col min="41" max="41" width="1.7109375" customWidth="1"/>
+    <col min="42" max="55" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="18" customFormat="1">
-      <c r="BC1" s="18" t="s">
+    <row r="1" spans="1:60" s="18" customFormat="1">
+      <c r="BD1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="BD1" s="18" t="s">
+      <c r="BE1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="BE1" s="18" t="s">
+      <c r="BF1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="BF1" s="18">
+      <c r="BG1" s="18">
         <v>34</v>
       </c>
-      <c r="BG1" s="18" t="s">
+      <c r="BH1" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="18" customFormat="1"/>
-    <row r="3" spans="1:59" s="18" customFormat="1">
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-    </row>
-    <row r="4" spans="1:59" s="18" customFormat="1" ht="18.75">
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-    </row>
-    <row r="5" spans="1:59" s="18" customFormat="1" ht="18.75">
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-    </row>
-    <row r="6" spans="1:59" s="18" customFormat="1">
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113"/>
-    </row>
-    <row r="7" spans="1:59" s="18" customFormat="1"/>
-    <row r="8" spans="1:59" s="18" customFormat="1" ht="20.25">
-      <c r="A8" s="115" t="s">
+    <row r="2" spans="1:60" s="18" customFormat="1"/>
+    <row r="3" spans="1:60" s="18" customFormat="1">
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+    </row>
+    <row r="4" spans="1:60" s="18" customFormat="1" ht="18.75">
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+    </row>
+    <row r="5" spans="1:60" s="18" customFormat="1" ht="18.75">
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+    </row>
+    <row r="6" spans="1:60" s="18" customFormat="1">
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+    </row>
+    <row r="7" spans="1:60" s="18" customFormat="1"/>
+    <row r="8" spans="1:60" s="18" customFormat="1" ht="20.25">
+      <c r="A8" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="140"/>
-      <c r="U8" s="140"/>
-      <c r="V8" s="140"/>
-      <c r="W8" s="140"/>
-      <c r="X8" s="140"/>
-      <c r="Y8" s="140"/>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="140"/>
-    </row>
-    <row r="9" spans="1:59" s="18" customFormat="1">
-      <c r="A9" s="116" t="s">
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="129"/>
+      <c r="AB8" s="91"/>
+    </row>
+    <row r="9" spans="1:60" s="18" customFormat="1">
+      <c r="A9" s="138" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="140"/>
-      <c r="T9" s="140"/>
-      <c r="U9" s="140"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="140"/>
-      <c r="Y9" s="140"/>
-      <c r="Z9" s="140"/>
-      <c r="AA9" s="140"/>
-    </row>
-    <row r="10" spans="1:59" s="18" customFormat="1" ht="20.25">
-      <c r="A10" s="117" t="s">
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="91"/>
+    </row>
+    <row r="10" spans="1:60" s="18" customFormat="1" ht="20.25">
+      <c r="A10" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="140"/>
-      <c r="T10" s="140"/>
-      <c r="U10" s="140"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="140"/>
-      <c r="Y10" s="140"/>
-      <c r="Z10" s="140"/>
-      <c r="AA10" s="140"/>
-    </row>
-    <row r="11" spans="1:59" s="18" customFormat="1" ht="20.25">
-      <c r="A11" s="117" t="s">
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="91"/>
+    </row>
+    <row r="11" spans="1:60" s="18" customFormat="1" ht="20.25">
+      <c r="A11" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="140"/>
-      <c r="T11" s="140"/>
-      <c r="U11" s="140"/>
-      <c r="V11" s="140"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="140"/>
-      <c r="Y11" s="140"/>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="140"/>
-    </row>
-    <row r="12" spans="1:59" s="18" customFormat="1" ht="20.25">
-      <c r="A12" s="137" t="s">
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="91"/>
+    </row>
+    <row r="12" spans="1:60" s="18" customFormat="1" ht="20.25">
+      <c r="A12" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="137"/>
-      <c r="R12" s="137"/>
-      <c r="S12" s="140"/>
-      <c r="T12" s="140"/>
-      <c r="U12" s="140"/>
-      <c r="V12" s="140"/>
-      <c r="W12" s="140"/>
-      <c r="X12" s="140"/>
-      <c r="Y12" s="140"/>
-      <c r="Z12" s="140"/>
-      <c r="AA12" s="140"/>
-    </row>
-    <row r="13" spans="1:59" s="18" customFormat="1" ht="20.25">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-    </row>
-    <row r="14" spans="1:59" s="18" customFormat="1"/>
-    <row r="15" spans="1:59" s="18" customFormat="1"/>
-    <row r="16" spans="1:59" s="125" customFormat="1" ht="18.75">
-      <c r="A16" s="119"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="124"/>
-      <c r="Z16" s="124"/>
-      <c r="AA16" s="124"/>
-      <c r="AB16" s="124"/>
-      <c r="AC16" s="124"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="124"/>
-      <c r="AG16" s="124"/>
-    </row>
-    <row r="17" spans="1:54" s="125" customFormat="1" ht="18.75">
-      <c r="A17" s="119"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="126"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="119"/>
-      <c r="W17" s="121" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="129"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="129"/>
+      <c r="Z12" s="129"/>
+      <c r="AA12" s="129"/>
+      <c r="AB12" s="91"/>
+    </row>
+    <row r="13" spans="1:60" s="18" customFormat="1" ht="20.25">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+    </row>
+    <row r="14" spans="1:60" s="18" customFormat="1"/>
+    <row r="15" spans="1:60" s="18" customFormat="1"/>
+    <row r="16" spans="1:60" s="81" customFormat="1" ht="18.75">
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+    </row>
+    <row r="17" spans="1:55" s="81" customFormat="1" ht="18.75">
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="X17" s="119"/>
-      <c r="Y17" s="119"/>
-      <c r="Z17" s="119"/>
-      <c r="AA17" s="119"/>
-      <c r="AB17" s="119"/>
-      <c r="AC17" s="119"/>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="119"/>
-      <c r="AF17" s="119"/>
-      <c r="AG17" s="119"/>
-    </row>
-    <row r="18" spans="1:54" s="125" customFormat="1">
-      <c r="A18" s="119"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="129"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="129"/>
-      <c r="Y18" s="129"/>
-      <c r="Z18" s="129"/>
-      <c r="AA18" s="129"/>
-      <c r="AB18" s="129"/>
-      <c r="AC18" s="129"/>
-      <c r="AD18" s="129"/>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="129"/>
-    </row>
-    <row r="19" spans="1:54" s="125" customFormat="1" ht="18.75">
-      <c r="A19" s="119"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="129"/>
-      <c r="W19" s="127" t="s">
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
+      <c r="AH17" s="75"/>
+    </row>
+    <row r="18" spans="1:55" s="81" customFormat="1">
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="85"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="85"/>
+      <c r="AE18" s="85"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="85"/>
+    </row>
+    <row r="19" spans="1:55" s="81" customFormat="1" ht="18.75">
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="129"/>
-      <c r="Z19" s="129"/>
-      <c r="AA19" s="129"/>
-      <c r="AB19" s="129"/>
-      <c r="AC19" s="129"/>
-      <c r="AD19" s="129"/>
-      <c r="AE19" s="129"/>
-      <c r="AF19" s="129"/>
-      <c r="AG19" s="129"/>
-    </row>
-    <row r="20" spans="1:54" s="125" customFormat="1" ht="18.75">
-      <c r="A20" s="119"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="127" t="s">
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="85"/>
+      <c r="AE19" s="85"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="85"/>
+      <c r="AH19" s="85"/>
+    </row>
+    <row r="20" spans="1:55" s="81" customFormat="1" ht="18.75">
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X20" s="129"/>
-      <c r="Y20" s="129"/>
-      <c r="Z20" s="129"/>
-      <c r="AA20" s="129"/>
-      <c r="AB20" s="129"/>
-      <c r="AC20" s="129"/>
-      <c r="AD20" s="129"/>
-      <c r="AE20" s="129"/>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="129"/>
-    </row>
-    <row r="21" spans="1:54" s="125" customFormat="1" ht="18.75">
-      <c r="A21" s="119"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="129"/>
-      <c r="W21" s="127" t="s">
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="85"/>
+      <c r="AE20" s="85"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="85"/>
+      <c r="AH20" s="85"/>
+    </row>
+    <row r="21" spans="1:55" s="81" customFormat="1" ht="18.75">
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="X21" s="129"/>
-      <c r="Y21" s="129"/>
-      <c r="Z21" s="129"/>
-      <c r="AA21" s="129"/>
-      <c r="AB21" s="129"/>
-      <c r="AC21" s="129"/>
-      <c r="AD21" s="129"/>
-      <c r="AE21" s="129"/>
-      <c r="AF21" s="129"/>
-      <c r="AG21" s="129"/>
-    </row>
-    <row r="22" spans="1:54" s="125" customFormat="1" ht="18.75">
-      <c r="A22" s="119"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="129"/>
-      <c r="W22" s="127" t="s">
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="85"/>
+      <c r="AE21" s="85"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="85"/>
+      <c r="AH21" s="85"/>
+    </row>
+    <row r="22" spans="1:55" s="81" customFormat="1" ht="18.75">
+      <c r="A22" s="75"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="X22" s="129"/>
-      <c r="Y22" s="129"/>
-      <c r="Z22" s="129"/>
-      <c r="AA22" s="129"/>
-      <c r="AB22" s="129"/>
-      <c r="AC22" s="129"/>
-      <c r="AD22" s="129"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="129"/>
-    </row>
-    <row r="23" spans="1:54" s="125" customFormat="1">
-      <c r="A23" s="119"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="129"/>
-      <c r="W23" s="130"/>
-      <c r="X23" s="129"/>
-      <c r="Y23" s="129"/>
-      <c r="Z23" s="129"/>
-      <c r="AA23" s="129"/>
-      <c r="AB23" s="129"/>
-      <c r="AC23" s="129"/>
-      <c r="AD23" s="129"/>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="129"/>
-      <c r="AG23" s="129"/>
-    </row>
-    <row r="24" spans="1:54" s="125" customFormat="1" ht="18.75">
-      <c r="A24" s="119"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="131"/>
-      <c r="V24" s="119"/>
-      <c r="W24" s="127" t="s">
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="85"/>
+      <c r="AC22" s="85"/>
+      <c r="AD22" s="85"/>
+      <c r="AE22" s="85"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="85"/>
+      <c r="AH22" s="85"/>
+    </row>
+    <row r="23" spans="1:55" s="81" customFormat="1">
+      <c r="A23" s="75"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="85"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="85"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="85"/>
+    </row>
+    <row r="24" spans="1:55" s="81" customFormat="1" ht="18.75">
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="X24" s="119"/>
-      <c r="Y24" s="119"/>
-      <c r="Z24" s="119"/>
-      <c r="AA24" s="119"/>
-      <c r="AB24" s="119"/>
-      <c r="AC24" s="119"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="119"/>
-      <c r="AF24" s="119"/>
-      <c r="AG24" s="119"/>
-    </row>
-    <row r="25" spans="1:54" s="125" customFormat="1" ht="18.75">
-      <c r="A25" s="119"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="119"/>
-      <c r="W25" s="127" t="s">
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="75"/>
+      <c r="AH24" s="75"/>
+    </row>
+    <row r="25" spans="1:55" s="81" customFormat="1" ht="18.75">
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="X25" s="119"/>
-      <c r="Y25" s="119"/>
-      <c r="Z25" s="119"/>
-      <c r="AA25" s="119"/>
-      <c r="AB25" s="119"/>
-      <c r="AC25" s="119"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="119"/>
-      <c r="AF25" s="119"/>
-      <c r="AG25" s="119"/>
-    </row>
-    <row r="26" spans="1:54" s="125" customFormat="1">
-      <c r="A26" s="119"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="119"/>
-      <c r="W26" s="119"/>
-      <c r="X26" s="119"/>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="119"/>
-      <c r="AA26" s="119"/>
-      <c r="AB26" s="119"/>
-      <c r="AC26" s="119"/>
-      <c r="AD26" s="119"/>
-      <c r="AE26" s="119"/>
-      <c r="AF26" s="119"/>
-      <c r="AG26" s="119"/>
-      <c r="AH26" s="128"/>
-    </row>
-    <row r="27" spans="1:54" s="125" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="132" t="s">
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="75"/>
+      <c r="AH25" s="75"/>
+    </row>
+    <row r="26" spans="1:55" s="81" customFormat="1">
+      <c r="A26" s="75"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="75"/>
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="84"/>
+    </row>
+    <row r="27" spans="1:55" s="81" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="133"/>
-      <c r="S27" s="133"/>
-      <c r="T27" s="133"/>
-      <c r="U27" s="133"/>
-      <c r="V27" s="141"/>
-      <c r="W27" s="141"/>
-      <c r="X27" s="141"/>
-      <c r="Y27" s="141"/>
-      <c r="Z27" s="141"/>
-      <c r="AA27" s="141"/>
-      <c r="AB27" s="134"/>
-      <c r="AC27" s="134"/>
-      <c r="AD27" s="134"/>
-      <c r="AE27" s="134"/>
-      <c r="AF27" s="134"/>
-      <c r="AG27" s="134"/>
-    </row>
-    <row r="28" spans="1:54" s="125" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="132" t="s">
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="133"/>
+      <c r="W27" s="133"/>
+      <c r="X27" s="133"/>
+      <c r="Y27" s="133"/>
+      <c r="Z27" s="133"/>
+      <c r="AA27" s="133"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="88"/>
+      <c r="AD27" s="88"/>
+      <c r="AE27" s="88"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="88"/>
+      <c r="AH27" s="88"/>
+    </row>
+    <row r="28" spans="1:55" s="81" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="133"/>
-      <c r="S28" s="133"/>
-      <c r="T28" s="133"/>
-      <c r="U28" s="133"/>
-      <c r="V28" s="141"/>
-      <c r="W28" s="141"/>
-      <c r="X28" s="141"/>
-      <c r="Y28" s="141"/>
-      <c r="Z28" s="141"/>
-      <c r="AA28" s="141"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="135"/>
-      <c r="AF28" s="135"/>
-      <c r="AG28" s="135"/>
-    </row>
-    <row r="29" spans="1:54" s="125" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A29" s="138" t="s">
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="132"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
+      <c r="V28" s="133"/>
+      <c r="W28" s="133"/>
+      <c r="X28" s="133"/>
+      <c r="Y28" s="133"/>
+      <c r="Z28" s="133"/>
+      <c r="AA28" s="133"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
+      <c r="AE28" s="89"/>
+      <c r="AF28" s="89"/>
+      <c r="AG28" s="89"/>
+      <c r="AH28" s="89"/>
+    </row>
+    <row r="29" spans="1:55" s="81" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="139"/>
-      <c r="Q29" s="139"/>
-      <c r="R29" s="139"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="139"/>
-      <c r="V29" s="141"/>
-      <c r="W29" s="141"/>
-      <c r="X29" s="141"/>
-      <c r="Y29" s="141"/>
-      <c r="Z29" s="141"/>
-      <c r="AA29" s="141"/>
-      <c r="AB29" s="136"/>
-      <c r="AC29" s="136"/>
-      <c r="AD29" s="136"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="136"/>
-      <c r="AG29" s="136"/>
-    </row>
-    <row r="30" spans="1:54" s="4" customFormat="1" ht="15.75">
-      <c r="A30" s="88" t="s">
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="133"/>
+      <c r="W29" s="133"/>
+      <c r="X29" s="133"/>
+      <c r="Y29" s="133"/>
+      <c r="Z29" s="133"/>
+      <c r="AA29" s="133"/>
+      <c r="AB29" s="92"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="90"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+    </row>
+    <row r="30" spans="1:55" s="4" customFormat="1" ht="15.75">
+      <c r="A30" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="150" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="88" t="s">
+      <c r="E30" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87" t="s">
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="M30" s="87"/>
+      <c r="M30" s="145"/>
       <c r="N30" s="19" t="s">
         <v>9</v>
       </c>
@@ -2668,344 +2764,350 @@
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
-      <c r="W30" s="89" t="s">
+      <c r="W30" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="X30" s="86" t="s">
+      <c r="X30" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="Y30" s="89" t="s">
+      <c r="Y30" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="Z30" s="86" t="s">
+      <c r="Z30" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="AA30" s="86" t="s">
+      <c r="AA30" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="105" t="s">
+      <c r="AB30" s="179" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="175" t="s">
         <v>96</v>
       </c>
-      <c r="AD30" s="107" t="s">
+      <c r="AE30" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="107" t="s">
+      <c r="AF30" s="141"/>
+      <c r="AG30" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="AG30" s="108"/>
-      <c r="AH30" s="109" t="s">
+      <c r="AH30" s="176"/>
+      <c r="AI30" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="AI30" s="109" t="s">
+      <c r="AJ30" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="AJ30" s="111" t="s">
+      <c r="AK30" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="AK30" s="111"/>
-      <c r="AL30" s="111" t="s">
+      <c r="AL30" s="139"/>
+      <c r="AM30" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="AM30" s="112"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="73" t="s">
+      <c r="AN30" s="140"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="164" t="s">
         <v>126</v>
       </c>
-      <c r="AP30" s="74"/>
-      <c r="AQ30" s="74"/>
-      <c r="AR30" s="74"/>
-      <c r="AS30" s="74"/>
-      <c r="AT30" s="74"/>
-      <c r="AU30" s="75"/>
-      <c r="AV30" s="73" t="s">
+      <c r="AQ30" s="165"/>
+      <c r="AR30" s="165"/>
+      <c r="AS30" s="165"/>
+      <c r="AT30" s="165"/>
+      <c r="AU30" s="165"/>
+      <c r="AV30" s="166"/>
+      <c r="AW30" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="AW30" s="74"/>
-      <c r="AX30" s="74"/>
-      <c r="AY30" s="74"/>
-      <c r="AZ30" s="74"/>
-      <c r="BA30" s="74"/>
-      <c r="BB30" s="75"/>
-    </row>
-    <row r="31" spans="1:54" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88" t="s">
+      <c r="AX30" s="165"/>
+      <c r="AY30" s="165"/>
+      <c r="AZ30" s="165"/>
+      <c r="BA30" s="165"/>
+      <c r="BB30" s="165"/>
+      <c r="BC30" s="166"/>
+    </row>
+    <row r="31" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="150"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="88" t="s">
+      <c r="D31" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="88" t="s">
+      <c r="E31" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="88" t="s">
+      <c r="F31" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="88"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="88" t="s">
+      <c r="G31" s="150"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="88"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="95" t="s">
+      <c r="J31" s="150"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="93" t="s">
+      <c r="M31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="N31" s="97" t="s">
+      <c r="N31" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="O31" s="97"/>
-      <c r="P31" s="97" t="s">
+      <c r="O31" s="151"/>
+      <c r="P31" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="97" t="s">
+      <c r="Q31" s="145"/>
+      <c r="R31" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="S31" s="98" t="s">
+      <c r="S31" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="T31" s="92" t="s">
+      <c r="T31" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="U31" s="84" t="s">
+      <c r="U31" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="V31" s="84" t="s">
+      <c r="V31" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="W31" s="89"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="86"/>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="106"/>
-      <c r="AD31" s="107" t="s">
+      <c r="W31" s="160"/>
+      <c r="X31" s="159"/>
+      <c r="Y31" s="160"/>
+      <c r="Z31" s="159"/>
+      <c r="AA31" s="159"/>
+      <c r="AB31" s="179"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="142"/>
+      <c r="AE31" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="AE31" s="107" t="s">
+      <c r="AF31" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="AF31" s="107" t="s">
+      <c r="AG31" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="AG31" s="107" t="s">
+      <c r="AH31" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="AH31" s="110"/>
-      <c r="AI31" s="110"/>
-      <c r="AJ31" s="112" t="s">
+      <c r="AI31" s="178"/>
+      <c r="AJ31" s="178"/>
+      <c r="AK31" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="AK31" s="112" t="s">
+      <c r="AL31" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="AL31" s="112" t="s">
+      <c r="AM31" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="AM31" s="112" t="s">
+      <c r="AN31" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="76" t="s">
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="AP31" s="78" t="s">
+      <c r="AQ31" s="169" t="s">
         <v>128</v>
       </c>
-      <c r="AQ31" s="79"/>
-      <c r="AR31" s="80" t="s">
+      <c r="AR31" s="170"/>
+      <c r="AS31" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="AS31" s="81"/>
-      <c r="AT31" s="82" t="s">
+      <c r="AT31" s="172"/>
+      <c r="AU31" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="AU31" s="83"/>
-      <c r="AV31" s="76" t="s">
+      <c r="AV31" s="174"/>
+      <c r="AW31" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="AW31" s="78" t="s">
+      <c r="AX31" s="169" t="s">
         <v>128</v>
       </c>
-      <c r="AX31" s="79"/>
-      <c r="AY31" s="80" t="s">
+      <c r="AY31" s="170"/>
+      <c r="AZ31" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="AZ31" s="81"/>
-      <c r="BA31" s="82" t="s">
+      <c r="BA31" s="172"/>
+      <c r="BB31" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="BB31" s="83"/>
-    </row>
-    <row r="32" spans="1:54" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="88"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="90" t="s">
+      <c r="BC31" s="174"/>
+    </row>
+    <row r="32" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="150"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="91"/>
-      <c r="H32" s="94" t="s">
+      <c r="G32" s="162"/>
+      <c r="H32" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="I32" s="99" t="s">
+      <c r="I32" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="J32" s="100"/>
-      <c r="K32" s="96" t="s">
+      <c r="J32" s="154"/>
+      <c r="K32" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="L32" s="95"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="94" t="s">
+      <c r="L32" s="146"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="O32" s="94" t="s">
+      <c r="O32" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="P32" s="96" t="s">
+      <c r="P32" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="Q32" s="96" t="s">
+      <c r="Q32" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="R32" s="97"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="86"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="86"/>
-      <c r="AA32" s="86"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="106"/>
-      <c r="AD32" s="106"/>
-      <c r="AE32" s="106"/>
-      <c r="AF32" s="106"/>
-      <c r="AG32" s="106"/>
-      <c r="AH32" s="110"/>
-      <c r="AI32" s="110"/>
-      <c r="AJ32" s="112"/>
-      <c r="AK32" s="112"/>
-      <c r="AL32" s="112"/>
-      <c r="AM32" s="112"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="77"/>
-      <c r="AP32" s="52" t="s">
+      <c r="R32" s="151"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="163"/>
+      <c r="U32" s="157"/>
+      <c r="V32" s="157"/>
+      <c r="W32" s="160"/>
+      <c r="X32" s="159"/>
+      <c r="Y32" s="160"/>
+      <c r="Z32" s="159"/>
+      <c r="AA32" s="159"/>
+      <c r="AB32" s="179"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="142"/>
+      <c r="AE32" s="142"/>
+      <c r="AF32" s="142"/>
+      <c r="AG32" s="142"/>
+      <c r="AH32" s="142"/>
+      <c r="AI32" s="178"/>
+      <c r="AJ32" s="178"/>
+      <c r="AK32" s="140"/>
+      <c r="AL32" s="140"/>
+      <c r="AM32" s="140"/>
+      <c r="AN32" s="140"/>
+      <c r="AO32" s="45"/>
+      <c r="AP32" s="168"/>
+      <c r="AQ32" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AQ32" s="53" t="s">
+      <c r="AR32" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="AR32" s="54" t="s">
+      <c r="AS32" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="AS32" s="55" t="s">
+      <c r="AT32" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="AT32" s="56" t="s">
+      <c r="AU32" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="AU32" s="57" t="s">
+      <c r="AV32" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="AV32" s="77"/>
-      <c r="AW32" s="52" t="s">
+      <c r="AW32" s="168"/>
+      <c r="AX32" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AX32" s="53" t="s">
+      <c r="AY32" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="AY32" s="54" t="s">
+      <c r="AZ32" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="AZ32" s="55" t="s">
+      <c r="BA32" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="BA32" s="56" t="s">
+      <c r="BB32" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="BB32" s="57" t="s">
+      <c r="BC32" s="57" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:65" s="4" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
+    <row r="33" spans="1:66" s="4" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A33" s="145"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
       <c r="F33" s="28" t="s">
         <v>91</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="95"/>
+      <c r="H33" s="146"/>
       <c r="I33" s="29" t="s">
         <v>91</v>
       </c>
       <c r="J33" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="93"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="87"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="106"/>
-      <c r="AD33" s="106"/>
-      <c r="AE33" s="106"/>
-      <c r="AF33" s="106"/>
-      <c r="AG33" s="106"/>
-      <c r="AH33" s="110"/>
-      <c r="AI33" s="110"/>
-      <c r="AJ33" s="112"/>
-      <c r="AK33" s="112"/>
-      <c r="AL33" s="112"/>
-      <c r="AM33" s="112"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="77"/>
-      <c r="AP33" s="52"/>
-      <c r="AQ33" s="53"/>
-      <c r="AR33" s="54"/>
-      <c r="AS33" s="55"/>
-      <c r="AT33" s="56"/>
-      <c r="AU33" s="57"/>
-      <c r="AV33" s="77"/>
-      <c r="AW33" s="52"/>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="54"/>
-      <c r="AZ33" s="55"/>
-      <c r="BA33" s="56"/>
-      <c r="BB33" s="57"/>
-    </row>
-    <row r="34" spans="1:65">
+      <c r="K33" s="147"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="147"/>
+      <c r="Q33" s="147"/>
+      <c r="R33" s="145"/>
+      <c r="S33" s="146"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="158"/>
+      <c r="V33" s="158"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="180"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="142"/>
+      <c r="AE33" s="142"/>
+      <c r="AF33" s="142"/>
+      <c r="AG33" s="142"/>
+      <c r="AH33" s="142"/>
+      <c r="AI33" s="178"/>
+      <c r="AJ33" s="178"/>
+      <c r="AK33" s="140"/>
+      <c r="AL33" s="140"/>
+      <c r="AM33" s="140"/>
+      <c r="AN33" s="140"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="168"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="53"/>
+      <c r="AS33" s="54"/>
+      <c r="AT33" s="55"/>
+      <c r="AU33" s="56"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="168"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="53"/>
+      <c r="AZ33" s="54"/>
+      <c r="BA33" s="55"/>
+      <c r="BB33" s="56"/>
+      <c r="BC33" s="57"/>
+    </row>
+    <row r="34" spans="1:66">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -3087,10 +3189,10 @@
       <c r="AA34" s="6">
         <v>27</v>
       </c>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="44">
-        <v>28</v>
-      </c>
+      <c r="AB34" s="181">
+        <v>27</v>
+      </c>
+      <c r="AC34" s="34"/>
       <c r="AD34" s="44">
         <v>28</v>
       </c>
@@ -3121,61 +3223,64 @@
       <c r="AM34" s="44">
         <v>28</v>
       </c>
-      <c r="AN34" s="30"/>
-      <c r="AO34" s="49">
+      <c r="AN34" s="44">
+        <v>28</v>
+      </c>
+      <c r="AO34" s="30"/>
+      <c r="AP34" s="49">
         <v>29</v>
       </c>
-      <c r="AP34" s="50">
+      <c r="AQ34" s="50">
         <v>30</v>
       </c>
-      <c r="AQ34" s="51">
+      <c r="AR34" s="51">
         <v>31</v>
       </c>
-      <c r="AR34" s="50">
+      <c r="AS34" s="50">
         <v>32</v>
       </c>
-      <c r="AS34" s="51">
+      <c r="AT34" s="51">
         <v>33</v>
       </c>
-      <c r="AT34" s="50">
+      <c r="AU34" s="50">
         <v>34</v>
       </c>
-      <c r="AU34" s="48">
+      <c r="AV34" s="48">
         <v>35</v>
       </c>
-      <c r="AV34" s="49">
+      <c r="AW34" s="49">
         <v>36</v>
       </c>
-      <c r="AW34" s="50">
+      <c r="AX34" s="50">
         <v>37</v>
       </c>
-      <c r="AX34" s="51">
+      <c r="AY34" s="51">
         <v>38</v>
       </c>
-      <c r="AY34" s="50">
+      <c r="AZ34" s="50">
         <v>39</v>
       </c>
-      <c r="AZ34" s="51">
+      <c r="BA34" s="51">
         <v>40</v>
       </c>
-      <c r="BA34" s="50">
+      <c r="BB34" s="50">
         <v>41</v>
       </c>
-      <c r="BB34" s="48">
+      <c r="BC34" s="48">
         <v>42</v>
       </c>
-      <c r="BD34" s="13"/>
-      <c r="BH34" s="10" t="s">
+      <c r="BE34" s="13"/>
+      <c r="BI34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="BI34" s="10" t="s">
+      <c r="BJ34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="BK34" s="11"/>
       <c r="BL34" s="11"/>
       <c r="BM34" s="11"/>
-    </row>
-    <row r="35" spans="1:65">
+      <c r="BN34" s="11"/>
+    </row>
+    <row r="35" spans="1:66">
       <c r="A35" s="3"/>
       <c r="B35" s="8" t="s">
         <v>24</v>
@@ -3248,110 +3353,113 @@
       <c r="Z35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AA35" s="9" t="s">
+      <c r="AA35" s="125" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB35" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="37" t="s">
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="AD35" s="38" t="s">
+      <c r="AE35" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="AE35" s="38" t="s">
+      <c r="AF35" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="AF35" s="38" t="s">
+      <c r="AG35" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="AG35" s="38" t="s">
+      <c r="AH35" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="AH35" s="39" t="s">
+      <c r="AI35" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="AI35" s="39" t="s">
+      <c r="AJ35" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="AJ35" s="40" t="s">
+      <c r="AK35" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="AK35" s="40" t="s">
+      <c r="AL35" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AL35" s="40" t="s">
+      <c r="AM35" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="AM35" s="40" t="s">
+      <c r="AN35" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="AN35" s="46"/>
-      <c r="AO35" s="58" t="s">
+      <c r="AO35" s="46"/>
+      <c r="AP35" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="AP35" s="59" t="s">
+      <c r="AQ35" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="AQ35" s="64" t="s">
+      <c r="AR35" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="AR35" s="60" t="s">
+      <c r="AS35" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="AS35" s="66" t="s">
+      <c r="AT35" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="AT35" s="61" t="s">
+      <c r="AU35" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AU35" s="67" t="s">
+      <c r="AV35" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="AV35" s="58" t="s">
+      <c r="AW35" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="AW35" s="59" t="s">
+      <c r="AX35" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="AX35" s="64" t="s">
+      <c r="AY35" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="AY35" s="60" t="s">
+      <c r="AZ35" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="AZ35" s="66" t="s">
+      <c r="BA35" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="BA35" s="61" t="s">
+      <c r="BB35" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="BB35" s="67" t="s">
+      <c r="BC35" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="BD35" s="14" t="s">
+      <c r="BE35" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="BE35" s="14" t="s">
+      <c r="BF35" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="BF35" s="14">
+      <c r="BG35" s="14">
         <v>1</v>
       </c>
-      <c r="BG35" s="12" t="s">
+      <c r="BH35" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="BH35" s="15"/>
       <c r="BI35" s="15"/>
-      <c r="BJ35" s="12"/>
-      <c r="BK35" s="16"/>
+      <c r="BJ35" s="15"/>
+      <c r="BK35" s="12"/>
       <c r="BL35" s="16"/>
       <c r="BM35" s="16"/>
-    </row>
-    <row r="36" spans="1:65">
-      <c r="A36" s="101" t="s">
+      <c r="BN35" s="16"/>
+    </row>
+    <row r="36" spans="1:66">
+      <c r="A36" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24" t="s">
@@ -3404,122 +3512,129 @@
       <c r="V36" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="W36" s="24"/>
+      <c r="W36" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="X36" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="Y36" s="24"/>
+      <c r="Y36" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="Z36" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AA36" s="24" t="s">
+      <c r="AA36" s="126" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB36" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="42" t="s">
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="AD36" s="42" t="s">
+      <c r="AE36" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="AE36" s="42" t="s">
+      <c r="AF36" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="AF36" s="42" t="s">
+      <c r="AG36" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="AG36" s="42" t="s">
+      <c r="AH36" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="AH36" s="42" t="s">
+      <c r="AI36" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="AI36" s="42" t="s">
+      <c r="AJ36" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="AJ36" s="42" t="s">
+      <c r="AK36" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="AK36" s="42" t="s">
+      <c r="AL36" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="AL36" s="42" t="s">
+      <c r="AM36" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="AM36" s="42" t="s">
+      <c r="AN36" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="AN36" s="47"/>
-      <c r="AO36" s="62" t="s">
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="AP36" s="63" t="s">
+      <c r="AQ36" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="AQ36" s="65" t="s">
+      <c r="AR36" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="AR36" s="63" t="s">
+      <c r="AS36" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="AS36" s="65" t="s">
+      <c r="AT36" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="AT36" s="63" t="s">
+      <c r="AU36" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="AU36" s="68" t="s">
+      <c r="AV36" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AV36" s="62" t="s">
+      <c r="AW36" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="AW36" s="63" t="s">
+      <c r="AX36" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="AX36" s="65" t="s">
+      <c r="AY36" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="AY36" s="63" t="s">
+      <c r="AZ36" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="AZ36" s="65" t="s">
+      <c r="BA36" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="BA36" s="63" t="s">
+      <c r="BB36" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="BB36" s="68" t="s">
+      <c r="BC36" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="BD36" s="17" t="s">
+      <c r="BE36" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="BE36" s="25" t="s">
+      <c r="BF36" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="BF36" s="17">
+      <c r="BG36" s="17">
         <v>1</v>
       </c>
-      <c r="BG36" s="17" t="s">
+      <c r="BH36" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="BH36" s="17" t="s">
+      <c r="BI36" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="BI36" s="25" t="s">
+      <c r="BJ36" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="BJ36" s="12"/>
-      <c r="BK36" s="16"/>
+      <c r="BK36" s="12"/>
       <c r="BL36" s="16"/>
       <c r="BM36" s="16"/>
-    </row>
-    <row r="37" spans="1:65" ht="15.75" thickBot="1">
-      <c r="A37" s="103" t="s">
+      <c r="BN36" s="16"/>
+    </row>
+    <row r="37" spans="1:66" ht="15.75" thickBot="1">
+      <c r="A37" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="104"/>
+      <c r="B37" s="149"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26" t="s">
@@ -3572,124 +3687,131 @@
       <c r="V37" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="W37" s="26"/>
+      <c r="W37" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="X37" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="Y37" s="26"/>
+      <c r="Y37" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="Z37" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AA37" s="26" t="s">
+      <c r="AA37" s="127" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB37" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="43" t="s">
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AD37" s="43" t="s">
+      <c r="AE37" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AE37" s="43" t="s">
+      <c r="AF37" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="AF37" s="43" t="s">
+      <c r="AG37" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="AG37" s="43" t="s">
+      <c r="AH37" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="AH37" s="43" t="s">
+      <c r="AI37" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="AI37" s="43" t="s">
+      <c r="AJ37" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="AJ37" s="43" t="s">
+      <c r="AK37" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="AK37" s="43" t="s">
+      <c r="AL37" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AL37" s="43" t="s">
+      <c r="AM37" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AM37" s="43" t="s">
+      <c r="AN37" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="AN37" s="47"/>
-      <c r="AO37" s="69" t="s">
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="AP37" s="70" t="s">
+      <c r="AQ37" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="AQ37" s="71" t="s">
+      <c r="AR37" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="AR37" s="70" t="s">
+      <c r="AS37" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="AS37" s="71" t="s">
+      <c r="AT37" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="AT37" s="70" t="s">
+      <c r="AU37" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="AU37" s="72" t="s">
+      <c r="AV37" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="AV37" s="69" t="s">
+      <c r="AW37" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="AW37" s="70" t="s">
+      <c r="AX37" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="AX37" s="71" t="s">
+      <c r="AY37" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AY37" s="70" t="s">
+      <c r="AZ37" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="AZ37" s="71" t="s">
+      <c r="BA37" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="BA37" s="70" t="s">
+      <c r="BB37" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="BB37" s="72" t="s">
+      <c r="BC37" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="BD37" s="17" t="s">
+      <c r="BE37" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="BE37" s="17" t="s">
+      <c r="BF37" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BF37" s="17">
+      <c r="BG37" s="17">
         <v>1</v>
       </c>
-      <c r="BG37" s="17" t="s">
+      <c r="BH37" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="BH37" s="17" t="s">
+      <c r="BI37" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="BI37" s="17" t="s">
+      <c r="BJ37" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BJ37" s="17"/>
-      <c r="BK37" s="18" t="s">
+      <c r="BK37" s="17"/>
+      <c r="BL37" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="BL37" s="18" t="s">
+      <c r="BM37" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="BM37" s="18">
+      <c r="BN37" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:65" ht="15.75" customHeight="1">
+    <row r="38" spans="1:66" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -3699,18 +3821,17 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="142"/>
+      <c r="L38" s="93"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="143"/>
+      <c r="O38" s="94"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="142"/>
+      <c r="R38" s="93"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="144"/>
-      <c r="AH38" s="11"/>
-      <c r="AQ38" s="11"/>
+      <c r="U38" s="95"/>
+      <c r="AI38" s="11"/>
       <c r="AR38" s="11"/>
       <c r="AS38" s="11"/>
       <c r="AT38" s="11"/>
@@ -3723,532 +3844,544 @@
       <c r="BA38" s="11"/>
       <c r="BB38" s="11"/>
       <c r="BC38" s="11"/>
-      <c r="BD38" s="11" t="s">
+      <c r="BD38" s="11"/>
+      <c r="BE38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="BE38" s="145" t="s">
+      <c r="BF38" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="BF38" s="11">
+      <c r="BG38" s="11">
         <v>27</v>
       </c>
-      <c r="BG38" s="11" t="s">
+      <c r="BH38" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="BH38" s="11"/>
       <c r="BI38" s="11"/>
       <c r="BJ38" s="11"/>
-    </row>
-    <row r="39" spans="1:65" s="14" customFormat="1" ht="18.75">
-      <c r="B39" s="146" t="s">
+      <c r="BK38" s="11"/>
+    </row>
+    <row r="39" spans="1:66" s="14" customFormat="1" ht="18.75">
+      <c r="B39" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="146"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="147"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="149"/>
-      <c r="N39" s="149"/>
-      <c r="O39" s="150"/>
-      <c r="P39" s="150"/>
-      <c r="Q39" s="150"/>
-      <c r="R39" s="151"/>
-      <c r="S39" s="151"/>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-    </row>
-    <row r="40" spans="1:65" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B40" s="152" t="s">
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="102"/>
+      <c r="S39" s="102"/>
+      <c r="T39" s="102"/>
+      <c r="U39" s="102"/>
+      <c r="AB39" s="91"/>
+    </row>
+    <row r="40" spans="1:66" s="14" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B40" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="153"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="148"/>
-      <c r="N40" s="148"/>
-      <c r="O40" s="148"/>
-      <c r="Q40" s="148"/>
-      <c r="R40" s="151"/>
-      <c r="S40" s="151"/>
-      <c r="T40" s="151"/>
-      <c r="U40" s="151"/>
-      <c r="V40" s="148" t="s">
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="102"/>
+      <c r="T40" s="102"/>
+      <c r="U40" s="102"/>
+      <c r="V40" s="99" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="41" spans="1:65" s="14" customFormat="1" ht="18.75">
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="148"/>
-      <c r="N41" s="148"/>
-      <c r="O41" s="148"/>
-      <c r="Q41" s="148"/>
-      <c r="R41" s="151"/>
-      <c r="S41" s="151"/>
-      <c r="T41" s="151"/>
-      <c r="U41" s="151"/>
-      <c r="V41" s="148"/>
-    </row>
-    <row r="42" spans="1:65" s="14" customFormat="1" ht="18.75">
-      <c r="B42" s="148"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="148"/>
-      <c r="M42" s="147"/>
-      <c r="N42" s="148"/>
-      <c r="O42" s="148"/>
-      <c r="Q42" s="148"/>
-      <c r="R42" s="151"/>
-      <c r="S42" s="151"/>
-      <c r="T42" s="151"/>
-      <c r="U42" s="151"/>
-      <c r="V42" s="148"/>
-    </row>
-    <row r="43" spans="1:65" s="14" customFormat="1" ht="18.75">
-      <c r="B43" s="148"/>
-      <c r="C43" s="148"/>
-      <c r="D43" s="148"/>
-      <c r="E43" s="148"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="148"/>
-      <c r="L43" s="148"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="148"/>
-      <c r="O43" s="148"/>
-      <c r="Q43" s="148"/>
-      <c r="R43" s="151"/>
-      <c r="S43" s="151"/>
-      <c r="T43" s="151"/>
-      <c r="U43" s="151"/>
-      <c r="V43" s="148"/>
-    </row>
-    <row r="44" spans="1:65" s="14" customFormat="1" ht="18.75">
-      <c r="B44" s="146" t="s">
+      <c r="AB40" s="91"/>
+    </row>
+    <row r="41" spans="1:66" s="14" customFormat="1" ht="18.75">
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
+      <c r="Q41" s="99"/>
+      <c r="R41" s="102"/>
+      <c r="S41" s="102"/>
+      <c r="T41" s="102"/>
+      <c r="U41" s="102"/>
+      <c r="V41" s="99"/>
+      <c r="AB41" s="91"/>
+    </row>
+    <row r="42" spans="1:66" s="14" customFormat="1" ht="18.75">
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="102"/>
+      <c r="S42" s="102"/>
+      <c r="T42" s="102"/>
+      <c r="U42" s="102"/>
+      <c r="V42" s="99"/>
+      <c r="AB42" s="91"/>
+    </row>
+    <row r="43" spans="1:66" s="14" customFormat="1" ht="18.75">
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="99"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="102"/>
+      <c r="S43" s="102"/>
+      <c r="T43" s="102"/>
+      <c r="U43" s="102"/>
+      <c r="V43" s="99"/>
+      <c r="AB43" s="91"/>
+    </row>
+    <row r="44" spans="1:66" s="14" customFormat="1" ht="18.75">
+      <c r="B44" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="148"/>
-      <c r="M44" s="148"/>
-      <c r="N44" s="148"/>
-      <c r="O44" s="148"/>
-      <c r="Q44" s="148"/>
-      <c r="R44" s="151"/>
-      <c r="S44" s="151"/>
-      <c r="T44" s="151"/>
-      <c r="U44" s="151"/>
-      <c r="V44" s="148"/>
-    </row>
-    <row r="45" spans="1:65" s="14" customFormat="1" ht="18.75">
-      <c r="B45" s="152" t="s">
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="102"/>
+      <c r="S44" s="102"/>
+      <c r="T44" s="102"/>
+      <c r="U44" s="102"/>
+      <c r="V44" s="99"/>
+      <c r="AB44" s="91"/>
+    </row>
+    <row r="45" spans="1:66" s="14" customFormat="1" ht="18.75">
+      <c r="B45" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="152"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="146"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="146"/>
-      <c r="M45" s="148"/>
-      <c r="N45" s="148"/>
-      <c r="O45" s="148"/>
-      <c r="Q45" s="148"/>
-      <c r="R45" s="151"/>
-      <c r="S45" s="151"/>
-      <c r="T45" s="151"/>
-      <c r="U45" s="151"/>
-      <c r="V45" s="148" t="s">
+      <c r="C45" s="103"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="99"/>
+      <c r="Q45" s="99"/>
+      <c r="R45" s="102"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="102"/>
+      <c r="U45" s="102"/>
+      <c r="V45" s="99" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="46" spans="1:65" s="14" customFormat="1" ht="18.75">
-      <c r="B46" s="148"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="148"/>
-      <c r="K46" s="148"/>
-      <c r="L46" s="148"/>
-      <c r="M46" s="148"/>
-      <c r="N46" s="148"/>
-      <c r="O46" s="148"/>
-      <c r="Q46" s="148"/>
-      <c r="R46" s="151"/>
-      <c r="S46" s="151"/>
-      <c r="T46" s="151"/>
-      <c r="U46" s="151"/>
-      <c r="V46" s="148"/>
-    </row>
-    <row r="47" spans="1:65" s="14" customFormat="1" ht="18.75">
-      <c r="B47" s="148"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="154"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="148"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="148"/>
-      <c r="L47" s="148"/>
-      <c r="M47" s="148"/>
-      <c r="N47" s="148"/>
-      <c r="O47" s="148"/>
-      <c r="P47" s="148"/>
-      <c r="Q47" s="148"/>
-      <c r="R47" s="151"/>
-      <c r="S47" s="151"/>
-      <c r="T47" s="151"/>
-      <c r="U47" s="151"/>
-    </row>
-    <row r="48" spans="1:65" s="14" customFormat="1" ht="18.75">
-      <c r="B48" s="148"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
-      <c r="K48" s="148"/>
-      <c r="L48" s="148"/>
-      <c r="M48" s="148"/>
-      <c r="N48" s="148"/>
-      <c r="O48" s="148"/>
-      <c r="P48" s="148"/>
-      <c r="Q48" s="148"/>
-      <c r="R48" s="151"/>
-      <c r="S48" s="151"/>
-      <c r="T48" s="151"/>
-      <c r="U48" s="151"/>
-    </row>
-    <row r="49" spans="2:62" s="14" customFormat="1" ht="18.75">
-      <c r="B49" s="152" t="s">
+      <c r="AB45" s="91"/>
+    </row>
+    <row r="46" spans="1:66" s="14" customFormat="1" ht="18.75">
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="99"/>
+      <c r="N46" s="99"/>
+      <c r="O46" s="99"/>
+      <c r="Q46" s="99"/>
+      <c r="R46" s="102"/>
+      <c r="S46" s="102"/>
+      <c r="T46" s="102"/>
+      <c r="U46" s="102"/>
+      <c r="V46" s="99"/>
+      <c r="AB46" s="91"/>
+    </row>
+    <row r="47" spans="1:66" s="14" customFormat="1" ht="18.75">
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="99"/>
+      <c r="Q47" s="99"/>
+      <c r="R47" s="102"/>
+      <c r="S47" s="102"/>
+      <c r="T47" s="102"/>
+      <c r="U47" s="102"/>
+      <c r="AB47" s="91"/>
+    </row>
+    <row r="48" spans="1:66" s="14" customFormat="1" ht="18.75">
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="102"/>
+      <c r="S48" s="102"/>
+      <c r="T48" s="102"/>
+      <c r="U48" s="102"/>
+      <c r="AB48" s="91"/>
+    </row>
+    <row r="49" spans="2:63" s="14" customFormat="1" ht="18.75">
+      <c r="B49" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="152"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="156"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="148"/>
-      <c r="J49" s="148"/>
-      <c r="K49" s="148"/>
-      <c r="L49" s="148"/>
-      <c r="M49" s="148"/>
-      <c r="N49" s="148"/>
-      <c r="O49" s="148"/>
-      <c r="P49" s="148"/>
-      <c r="Q49" s="148"/>
-      <c r="R49" s="151"/>
-      <c r="S49" s="151"/>
-      <c r="T49" s="151"/>
-      <c r="U49" s="151"/>
-    </row>
-    <row r="50" spans="2:62" s="14" customFormat="1" ht="18.75">
-      <c r="B50" s="152" t="s">
+      <c r="C49" s="103"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="99"/>
+      <c r="Q49" s="99"/>
+      <c r="R49" s="102"/>
+      <c r="S49" s="102"/>
+      <c r="T49" s="102"/>
+      <c r="U49" s="102"/>
+      <c r="AB49" s="91"/>
+    </row>
+    <row r="50" spans="2:63" s="14" customFormat="1" ht="18.75">
+      <c r="B50" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="C50" s="152"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="146"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="146"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="148"/>
-      <c r="K50" s="148"/>
-      <c r="L50" s="148"/>
-      <c r="M50" s="148"/>
-      <c r="N50" s="148"/>
-      <c r="O50" s="148"/>
-      <c r="P50" s="148"/>
-      <c r="Q50" s="148"/>
-      <c r="R50" s="151"/>
-      <c r="S50" s="151"/>
-      <c r="T50" s="151"/>
-      <c r="U50" s="151"/>
-    </row>
-    <row r="51" spans="2:62" s="18" customFormat="1" ht="18.75">
-      <c r="B51" s="157"/>
-      <c r="C51" s="158"/>
-      <c r="D51" s="157"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="157"/>
-      <c r="K51" s="159"/>
-      <c r="L51" s="157"/>
-      <c r="M51" s="157"/>
-      <c r="N51" s="157"/>
-      <c r="O51" s="157"/>
-      <c r="P51" s="157"/>
-      <c r="Q51" s="157"/>
-      <c r="R51" s="160"/>
-      <c r="S51" s="160"/>
-      <c r="T51" s="160"/>
-      <c r="U51" s="160"/>
-    </row>
-    <row r="52" spans="2:62" s="161" customFormat="1" ht="18.75"/>
-    <row r="53" spans="2:62" s="162" customFormat="1" ht="15.75" customHeight="1">
-      <c r="L53" s="163"/>
-      <c r="O53" s="164"/>
-      <c r="R53" s="163"/>
-      <c r="U53" s="163"/>
-    </row>
-    <row r="54" spans="2:62" s="162" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B54" s="165" t="s">
+      <c r="C50" s="103"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="99"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="99"/>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="99"/>
+      <c r="R50" s="102"/>
+      <c r="S50" s="102"/>
+      <c r="T50" s="102"/>
+      <c r="U50" s="102"/>
+      <c r="AB50" s="91"/>
+    </row>
+    <row r="51" spans="2:63" s="18" customFormat="1" ht="18.75">
+      <c r="B51" s="108"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="110"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="108"/>
+      <c r="N51" s="108"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="108"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+    </row>
+    <row r="52" spans="2:63" s="112" customFormat="1" ht="18.75"/>
+    <row r="53" spans="2:63" s="113" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L53" s="114"/>
+      <c r="O53" s="115"/>
+      <c r="R53" s="114"/>
+      <c r="U53" s="114"/>
+    </row>
+    <row r="54" spans="2:63" s="113" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B54" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="165"/>
-      <c r="K54" s="165"/>
-      <c r="L54" s="165"/>
-      <c r="M54" s="165"/>
-      <c r="N54" s="166"/>
-      <c r="O54" s="166"/>
-      <c r="P54" s="167"/>
-      <c r="Q54" s="167"/>
-      <c r="R54" s="165"/>
-      <c r="T54" s="166"/>
-      <c r="U54" s="162" t="s">
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
+      <c r="M54" s="116"/>
+      <c r="N54" s="117"/>
+      <c r="O54" s="117"/>
+      <c r="P54" s="118"/>
+      <c r="Q54" s="118"/>
+      <c r="R54" s="116"/>
+      <c r="T54" s="117"/>
+      <c r="U54" s="113" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="2:62" s="162" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B55" s="165" t="s">
+    <row r="55" spans="2:63" s="113" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B55" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="165"/>
-      <c r="G55" s="165"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="165"/>
-      <c r="J55" s="165"/>
-      <c r="K55" s="165"/>
-      <c r="L55" s="168"/>
-      <c r="M55" s="168"/>
-      <c r="N55" s="168"/>
-      <c r="O55" s="168"/>
-      <c r="P55" s="168"/>
-      <c r="Q55" s="165"/>
-      <c r="T55" s="168"/>
-      <c r="U55" s="162" t="s">
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="119"/>
+      <c r="M55" s="119"/>
+      <c r="N55" s="119"/>
+      <c r="O55" s="119"/>
+      <c r="P55" s="119"/>
+      <c r="Q55" s="116"/>
+      <c r="T55" s="119"/>
+      <c r="U55" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="X55" s="162" t="s">
+      <c r="X55" s="113" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="2:62" s="162" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B56" s="165" t="s">
+    <row r="56" spans="2:63" s="113" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B56" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="165"/>
-      <c r="L56" s="165"/>
-      <c r="M56" s="165"/>
-      <c r="N56" s="165"/>
-      <c r="O56" s="169"/>
-      <c r="P56" s="165"/>
-      <c r="Q56" s="165"/>
-      <c r="T56" s="165"/>
-    </row>
-    <row r="57" spans="2:62" s="162" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="165"/>
-      <c r="I57" s="165"/>
-      <c r="J57" s="165"/>
-      <c r="K57" s="165"/>
-      <c r="L57" s="168"/>
-      <c r="M57" s="168"/>
-      <c r="N57" s="168"/>
-      <c r="O57" s="166"/>
-      <c r="P57" s="167"/>
-      <c r="Q57" s="165"/>
-      <c r="T57" s="165"/>
-    </row>
-    <row r="58" spans="2:62" s="162" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B58" s="165" t="s">
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="116"/>
+      <c r="N56" s="116"/>
+      <c r="O56" s="120"/>
+      <c r="P56" s="116"/>
+      <c r="Q56" s="116"/>
+      <c r="T56" s="116"/>
+    </row>
+    <row r="57" spans="2:63" s="113" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B57" s="116"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="116"/>
+      <c r="L57" s="119"/>
+      <c r="M57" s="119"/>
+      <c r="N57" s="119"/>
+      <c r="O57" s="117"/>
+      <c r="P57" s="118"/>
+      <c r="Q57" s="116"/>
+      <c r="T57" s="116"/>
+    </row>
+    <row r="58" spans="2:63" s="113" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B58" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="165"/>
-      <c r="G58" s="170"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="165"/>
-      <c r="K58" s="165"/>
-      <c r="L58" s="168"/>
-      <c r="M58" s="168"/>
-      <c r="N58" s="168"/>
-      <c r="O58" s="168"/>
-      <c r="P58" s="168"/>
-      <c r="Q58" s="166"/>
-      <c r="T58" s="165"/>
-      <c r="U58" s="162" t="s">
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="119"/>
+      <c r="M58" s="119"/>
+      <c r="N58" s="119"/>
+      <c r="O58" s="119"/>
+      <c r="P58" s="119"/>
+      <c r="Q58" s="117"/>
+      <c r="T58" s="116"/>
+      <c r="U58" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="X58" s="162" t="s">
+      <c r="X58" s="113" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="2:62" s="162" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
-      <c r="E59" s="165"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="165"/>
-      <c r="H59" s="165"/>
-      <c r="I59" s="165"/>
-      <c r="J59" s="165"/>
-      <c r="K59" s="165"/>
-      <c r="L59" s="165"/>
-      <c r="M59" s="165"/>
-      <c r="N59" s="165"/>
-      <c r="O59" s="169"/>
-      <c r="P59" s="165"/>
-      <c r="Q59" s="165"/>
-      <c r="T59" s="165"/>
-    </row>
-    <row r="60" spans="2:62" s="162" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B60" s="165" t="s">
+    <row r="59" spans="2:63" s="113" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
+      <c r="M59" s="116"/>
+      <c r="N59" s="116"/>
+      <c r="O59" s="120"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="116"/>
+      <c r="T59" s="116"/>
+    </row>
+    <row r="60" spans="2:63" s="113" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B60" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="165"/>
-      <c r="H60" s="165"/>
-      <c r="I60" s="165"/>
-      <c r="J60" s="165"/>
-      <c r="K60" s="165"/>
-      <c r="L60" s="127"/>
-      <c r="M60" s="127"/>
-      <c r="N60" s="127"/>
-      <c r="P60" s="165"/>
-      <c r="Q60" s="165"/>
-      <c r="T60" s="127"/>
-      <c r="U60" s="162" t="s">
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="83"/>
+      <c r="P60" s="116"/>
+      <c r="Q60" s="116"/>
+      <c r="T60" s="83"/>
+      <c r="U60" s="113" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="2:62" s="162" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="165"/>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="165"/>
-      <c r="K61" s="165"/>
-      <c r="U61" s="162" t="s">
+    <row r="61" spans="2:63" s="113" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="116"/>
+      <c r="K61" s="116"/>
+      <c r="U61" s="113" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="2:62" s="162" customFormat="1" ht="18.75">
-      <c r="B62" s="173" t="s">
+    <row r="62" spans="2:63" s="113" customFormat="1" ht="18.75">
+      <c r="B62" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="165"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
-      <c r="H62" s="165"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="165"/>
-      <c r="K62" s="165"/>
-      <c r="T62" s="127"/>
-      <c r="U62" s="162" t="s">
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="116"/>
+      <c r="J62" s="116"/>
+      <c r="K62" s="116"/>
+      <c r="T62" s="83"/>
+      <c r="U62" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="Y62" s="162" t="s">
+      <c r="Y62" s="113" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="2:62" s="162" customFormat="1" ht="18.75"/>
-    <row r="64" spans="2:62" s="12" customFormat="1">
-      <c r="AH64" s="16"/>
-      <c r="AQ64" s="16"/>
+    <row r="63" spans="2:63" s="113" customFormat="1" ht="18.75"/>
+    <row r="64" spans="2:63" s="12" customFormat="1">
+      <c r="AI64" s="16"/>
       <c r="AR64" s="16"/>
       <c r="AS64" s="16"/>
       <c r="AT64" s="16"/>
@@ -4265,17 +4398,17 @@
       <c r="BE64" s="16"/>
       <c r="BF64" s="16"/>
       <c r="BG64" s="16"/>
-      <c r="BH64" s="16" t="s">
+      <c r="BH64" s="16"/>
+      <c r="BI64" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="BI64" s="171" t="s">
+      <c r="BJ64" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="BJ64" s="16"/>
-    </row>
-    <row r="65" spans="34:62">
-      <c r="AH65" s="11"/>
-      <c r="AQ65" s="11"/>
+      <c r="BK64" s="16"/>
+    </row>
+    <row r="65" spans="35:63">
+      <c r="AI65" s="11"/>
       <c r="AR65" s="11"/>
       <c r="AS65" s="11"/>
       <c r="AT65" s="11"/>
@@ -4288,64 +4421,36 @@
       <c r="BA65" s="11"/>
       <c r="BB65" s="11"/>
       <c r="BC65" s="11"/>
-      <c r="BD65" s="172" t="s">
+      <c r="BD65" s="11"/>
+      <c r="BE65" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="BE65" s="11"/>
       <c r="BF65" s="11"/>
       <c r="BG65" s="11"/>
       <c r="BH65" s="11"/>
       <c r="BI65" s="11"/>
       <c r="BJ65" s="11"/>
+      <c r="BK65" s="11"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="68">
-    <mergeCell ref="A11:AA11"/>
-    <mergeCell ref="A12:AA12"/>
-    <mergeCell ref="A27:AA27"/>
-    <mergeCell ref="A28:AA28"/>
-    <mergeCell ref="A29:AA29"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="A8:AA8"/>
-    <mergeCell ref="A9:AA9"/>
-    <mergeCell ref="A10:AA10"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AD31:AD33"/>
-    <mergeCell ref="AE31:AE33"/>
-    <mergeCell ref="AF31:AF33"/>
-    <mergeCell ref="AG31:AG33"/>
-    <mergeCell ref="AJ31:AJ33"/>
-    <mergeCell ref="AK31:AK33"/>
-    <mergeCell ref="AL31:AL33"/>
-    <mergeCell ref="AM31:AM33"/>
-    <mergeCell ref="AC30:AC33"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AH30:AH33"/>
+  <mergeCells count="69">
+    <mergeCell ref="AB30:AB33"/>
+    <mergeCell ref="AW30:BC30"/>
+    <mergeCell ref="AW31:AW33"/>
+    <mergeCell ref="AX31:AY31"/>
+    <mergeCell ref="AZ31:BA31"/>
+    <mergeCell ref="BB31:BC31"/>
+    <mergeCell ref="AP30:AV30"/>
+    <mergeCell ref="AP31:AP33"/>
+    <mergeCell ref="AQ31:AR31"/>
+    <mergeCell ref="AS31:AT31"/>
+    <mergeCell ref="AU31:AV31"/>
+    <mergeCell ref="AD30:AD33"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
     <mergeCell ref="AI30:AI33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="T31:T33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="R31:R33"/>
-    <mergeCell ref="S31:S33"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="AJ30:AJ33"/>
     <mergeCell ref="U31:U33"/>
     <mergeCell ref="V31:V33"/>
     <mergeCell ref="Z30:Z33"/>
@@ -4359,16 +4464,46 @@
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="E30:K30"/>
-    <mergeCell ref="AO30:AU30"/>
-    <mergeCell ref="AO31:AO33"/>
-    <mergeCell ref="AP31:AQ31"/>
-    <mergeCell ref="AR31:AS31"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AV30:BB30"/>
-    <mergeCell ref="AV31:AV33"/>
-    <mergeCell ref="AW31:AX31"/>
-    <mergeCell ref="AY31:AZ31"/>
-    <mergeCell ref="BA31:BB31"/>
+    <mergeCell ref="T31:T33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="R31:R33"/>
+    <mergeCell ref="S31:S33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="AE31:AE33"/>
+    <mergeCell ref="AF31:AF33"/>
+    <mergeCell ref="AG31:AG33"/>
+    <mergeCell ref="AH31:AH33"/>
+    <mergeCell ref="AK31:AK33"/>
+    <mergeCell ref="AL31:AL33"/>
+    <mergeCell ref="AM31:AM33"/>
+    <mergeCell ref="AN31:AN33"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="A8:AA8"/>
+    <mergeCell ref="A9:AA9"/>
+    <mergeCell ref="A10:AA10"/>
+    <mergeCell ref="A11:AA11"/>
+    <mergeCell ref="A12:AA12"/>
+    <mergeCell ref="A27:AA27"/>
+    <mergeCell ref="A28:AA28"/>
+    <mergeCell ref="A29:AA29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Reports/AreDifferent/decryption_canalisation_byHouse2/decryption_canalisation_byHouse2.xlsx
+++ b/Reports/AreDifferent/decryption_canalisation_byHouse2/decryption_canalisation_byHouse2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="390" windowWidth="28440" windowHeight="12195"/>
+    <workbookView xWindow="180" yWindow="390" windowWidth="24240" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="185">
   <si>
     <t>Утверждаю :</t>
   </si>
@@ -510,15 +510,6 @@
     <t>"за ".$this-&gt;H['full_name_month']</t>
   </si>
   <si>
-    <t xml:space="preserve">Приложение  к Соглашению № 40-юр  с 16.02.2022 </t>
-  </si>
-  <si>
-    <t>(на осн.доверенности № 1/6171-8 от 14.12.2021)</t>
-  </si>
-  <si>
-    <t>"______"_________________   2022</t>
-  </si>
-  <si>
     <t>Заместитель Главы Беловского</t>
   </si>
   <si>
@@ -546,25 +537,7 @@
     <t xml:space="preserve"> ______________ Д.А.Соловьев</t>
   </si>
   <si>
-    <t>Начальник ПЭО</t>
-  </si>
-  <si>
     <t>______________М.Е.Праздников</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Начальник отдела </t>
-  </si>
-  <si>
-    <t xml:space="preserve">по эксплуатации </t>
-  </si>
-  <si>
-    <t>сооружений и оборудования ВКХ</t>
-  </si>
-  <si>
-    <t>Вед.специалист по ВКХ_______________Н.Н.Новикова</t>
-  </si>
-  <si>
-    <t>_____________А.Н.Бугун</t>
   </si>
   <si>
     <t>Справка по расчету субвенции на водоотведение</t>
@@ -590,6 +563,27 @@
       </rPr>
       <t>асчетная сумма для контроля (столбец удалить)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Приложение  к Соглашению № 30-юр  с 19.02.2024 </t>
+  </si>
+  <si>
+    <t>(на осн.доверенности № 1/3101-8 от 20.06.2024)</t>
+  </si>
+  <si>
+    <t>"______"_________________   2024</t>
+  </si>
+  <si>
+    <t>Зам.директора по экономике</t>
+  </si>
+  <si>
+    <t>Главный инженер</t>
+  </si>
+  <si>
+    <t>______________Е.А.Сикова</t>
+  </si>
+  <si>
+    <t>Вед.специалист по ВКХ_______________Н.А.Крюкова</t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1475,152 @@
     <xf numFmtId="2" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="23" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1503,148 +1639,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1958,8 +1952,8 @@
   </sheetPr>
   <dimension ref="A1:BN65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N5" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="AB38" sqref="AB38"/>
+    <sheetView tabSelected="1" topLeftCell="P27" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2005,26 +1999,26 @@
       <c r="U3" s="73"/>
     </row>
     <row r="4" spans="1:60" s="18" customFormat="1" ht="18.75">
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="173"/>
     </row>
     <row r="5" spans="1:60" s="18" customFormat="1" ht="18.75">
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
     </row>
     <row r="6" spans="1:60" s="18" customFormat="1">
       <c r="M6" s="73"/>
@@ -2039,163 +2033,163 @@
     </row>
     <row r="7" spans="1:60" s="18" customFormat="1"/>
     <row r="8" spans="1:60" s="18" customFormat="1" ht="20.25">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="174" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="129"/>
-      <c r="T8" s="129"/>
-      <c r="U8" s="129"/>
-      <c r="V8" s="129"/>
-      <c r="W8" s="129"/>
-      <c r="X8" s="129"/>
-      <c r="Y8" s="129"/>
-      <c r="Z8" s="129"/>
-      <c r="AA8" s="129"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="174"/>
+      <c r="R8" s="174"/>
+      <c r="S8" s="175"/>
+      <c r="T8" s="175"/>
+      <c r="U8" s="175"/>
+      <c r="V8" s="175"/>
+      <c r="W8" s="175"/>
+      <c r="X8" s="175"/>
+      <c r="Y8" s="175"/>
+      <c r="Z8" s="175"/>
+      <c r="AA8" s="175"/>
       <c r="AB8" s="91"/>
     </row>
     <row r="9" spans="1:60" s="18" customFormat="1">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
-      <c r="U9" s="129"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="129"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="129"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
+      <c r="U9" s="175"/>
+      <c r="V9" s="175"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="175"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="175"/>
+      <c r="AA9" s="175"/>
       <c r="AB9" s="91"/>
     </row>
     <row r="10" spans="1:60" s="18" customFormat="1" ht="20.25">
-      <c r="A10" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="129"/>
-      <c r="U10" s="129"/>
-      <c r="V10" s="129"/>
-      <c r="W10" s="129"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
+      <c r="A10" s="177" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="177"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="175"/>
+      <c r="V10" s="175"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="175"/>
+      <c r="Y10" s="175"/>
+      <c r="Z10" s="175"/>
+      <c r="AA10" s="175"/>
       <c r="AB10" s="91"/>
     </row>
     <row r="11" spans="1:60" s="18" customFormat="1" ht="20.25">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="177" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="129"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="177"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="175"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="175"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="175"/>
+      <c r="Y11" s="175"/>
+      <c r="Z11" s="175"/>
+      <c r="AA11" s="175"/>
       <c r="AB11" s="91"/>
     </row>
     <row r="12" spans="1:60" s="18" customFormat="1" ht="20.25">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129"/>
-      <c r="V12" s="129"/>
-      <c r="W12" s="129"/>
-      <c r="X12" s="129"/>
-      <c r="Y12" s="129"/>
-      <c r="Z12" s="129"/>
-      <c r="AA12" s="129"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="178"/>
+      <c r="M12" s="178"/>
+      <c r="N12" s="178"/>
+      <c r="O12" s="178"/>
+      <c r="P12" s="178"/>
+      <c r="Q12" s="178"/>
+      <c r="R12" s="178"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="175"/>
+      <c r="U12" s="175"/>
+      <c r="V12" s="175"/>
+      <c r="W12" s="175"/>
+      <c r="X12" s="175"/>
+      <c r="Y12" s="175"/>
+      <c r="Z12" s="175"/>
+      <c r="AA12" s="175"/>
       <c r="AB12" s="91"/>
     </row>
     <row r="13" spans="1:60" s="18" customFormat="1" ht="20.25">
@@ -2278,7 +2272,7 @@
       <c r="U17" s="75"/>
       <c r="V17" s="75"/>
       <c r="W17" s="77" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X17" s="75"/>
       <c r="Y17" s="75"/>
@@ -2456,7 +2450,7 @@
       <c r="U22" s="84"/>
       <c r="V22" s="85"/>
       <c r="W22" s="83" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X22" s="85"/>
       <c r="Y22" s="85"/>
@@ -2564,7 +2558,7 @@
       <c r="U25" s="87"/>
       <c r="V25" s="75"/>
       <c r="W25" s="83" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X25" s="75"/>
       <c r="Y25" s="75"/>
@@ -2616,35 +2610,35 @@
       <c r="AI26" s="84"/>
     </row>
     <row r="27" spans="1:55" s="81" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="132"/>
-      <c r="Q27" s="132"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="132"/>
-      <c r="V27" s="133"/>
-      <c r="W27" s="133"/>
-      <c r="X27" s="133"/>
-      <c r="Y27" s="133"/>
-      <c r="Z27" s="133"/>
-      <c r="AA27" s="133"/>
+      <c r="A27" s="179" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="180"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="180"/>
+      <c r="O27" s="180"/>
+      <c r="P27" s="180"/>
+      <c r="Q27" s="180"/>
+      <c r="R27" s="180"/>
+      <c r="S27" s="180"/>
+      <c r="T27" s="180"/>
+      <c r="U27" s="180"/>
+      <c r="V27" s="181"/>
+      <c r="W27" s="181"/>
+      <c r="X27" s="181"/>
+      <c r="Y27" s="181"/>
+      <c r="Z27" s="181"/>
+      <c r="AA27" s="181"/>
       <c r="AB27" s="92"/>
       <c r="AC27" s="88"/>
       <c r="AD27" s="88"/>
@@ -2654,35 +2648,35 @@
       <c r="AH27" s="88"/>
     </row>
     <row r="28" spans="1:55" s="81" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="131" t="s">
+      <c r="A28" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="132"/>
-      <c r="Q28" s="132"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="133"/>
-      <c r="W28" s="133"/>
-      <c r="X28" s="133"/>
-      <c r="Y28" s="133"/>
-      <c r="Z28" s="133"/>
-      <c r="AA28" s="133"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="180"/>
+      <c r="K28" s="180"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="180"/>
+      <c r="O28" s="180"/>
+      <c r="P28" s="180"/>
+      <c r="Q28" s="180"/>
+      <c r="R28" s="180"/>
+      <c r="S28" s="180"/>
+      <c r="T28" s="180"/>
+      <c r="U28" s="180"/>
+      <c r="V28" s="181"/>
+      <c r="W28" s="181"/>
+      <c r="X28" s="181"/>
+      <c r="Y28" s="181"/>
+      <c r="Z28" s="181"/>
+      <c r="AA28" s="181"/>
       <c r="AB28" s="92"/>
       <c r="AC28" s="89"/>
       <c r="AD28" s="89"/>
@@ -2692,35 +2686,35 @@
       <c r="AH28" s="89"/>
     </row>
     <row r="29" spans="1:55" s="81" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="133"/>
-      <c r="W29" s="133"/>
-      <c r="X29" s="133"/>
-      <c r="Y29" s="133"/>
-      <c r="Z29" s="133"/>
-      <c r="AA29" s="133"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="183"/>
+      <c r="S29" s="183"/>
+      <c r="T29" s="183"/>
+      <c r="U29" s="183"/>
+      <c r="V29" s="181"/>
+      <c r="W29" s="181"/>
+      <c r="X29" s="181"/>
+      <c r="Y29" s="181"/>
+      <c r="Z29" s="181"/>
+      <c r="AA29" s="181"/>
       <c r="AB29" s="92"/>
       <c r="AC29" s="90"/>
       <c r="AD29" s="90"/>
@@ -2729,30 +2723,30 @@
       <c r="AG29" s="90"/>
       <c r="AH29" s="90"/>
     </row>
-    <row r="30" spans="1:55" s="4" customFormat="1" ht="15.75">
-      <c r="A30" s="150" t="s">
+    <row r="30" spans="1:55" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A30" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="150" t="s">
+      <c r="B30" s="154" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="150" t="s">
+      <c r="E30" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145" t="s">
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="M30" s="145"/>
+      <c r="M30" s="153"/>
       <c r="N30" s="19" t="s">
         <v>9</v>
       </c>
@@ -2764,246 +2758,246 @@
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
-      <c r="W30" s="160" t="s">
+      <c r="W30" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="X30" s="159" t="s">
+      <c r="X30" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="Y30" s="160" t="s">
+      <c r="Y30" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="Z30" s="159" t="s">
+      <c r="Z30" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="AA30" s="159" t="s">
+      <c r="AA30" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="AB30" s="179" t="s">
-        <v>186</v>
+      <c r="AB30" s="131" t="s">
+        <v>177</v>
       </c>
       <c r="AC30" s="31"/>
-      <c r="AD30" s="175" t="s">
+      <c r="AD30" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="AE30" s="141" t="s">
+      <c r="AE30" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="AF30" s="141"/>
-      <c r="AG30" s="141" t="s">
+      <c r="AF30" s="146"/>
+      <c r="AG30" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="AH30" s="176"/>
-      <c r="AI30" s="177" t="s">
+      <c r="AH30" s="147"/>
+      <c r="AI30" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="AJ30" s="177" t="s">
+      <c r="AJ30" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="AK30" s="139" t="s">
+      <c r="AK30" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="AL30" s="139"/>
-      <c r="AM30" s="139" t="s">
+      <c r="AL30" s="171"/>
+      <c r="AM30" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="AN30" s="140"/>
+      <c r="AN30" s="172"/>
       <c r="AO30" s="45"/>
-      <c r="AP30" s="164" t="s">
+      <c r="AP30" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="AQ30" s="165"/>
-      <c r="AR30" s="165"/>
-      <c r="AS30" s="165"/>
-      <c r="AT30" s="165"/>
-      <c r="AU30" s="165"/>
-      <c r="AV30" s="166"/>
-      <c r="AW30" s="164" t="s">
+      <c r="AQ30" s="134"/>
+      <c r="AR30" s="134"/>
+      <c r="AS30" s="134"/>
+      <c r="AT30" s="134"/>
+      <c r="AU30" s="134"/>
+      <c r="AV30" s="135"/>
+      <c r="AW30" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="AX30" s="165"/>
-      <c r="AY30" s="165"/>
-      <c r="AZ30" s="165"/>
-      <c r="BA30" s="165"/>
-      <c r="BB30" s="165"/>
-      <c r="BC30" s="166"/>
+      <c r="AX30" s="134"/>
+      <c r="AY30" s="134"/>
+      <c r="AZ30" s="134"/>
+      <c r="BA30" s="134"/>
+      <c r="BB30" s="134"/>
+      <c r="BC30" s="135"/>
     </row>
     <row r="31" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="150"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150" t="s">
+      <c r="A31" s="154"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="150" t="s">
+      <c r="D31" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="150" t="s">
+      <c r="E31" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="150" t="s">
+      <c r="F31" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="150"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="150" t="s">
+      <c r="G31" s="154"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="150"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="146" t="s">
+      <c r="J31" s="154"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="147" t="s">
+      <c r="M31" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="N31" s="151" t="s">
+      <c r="N31" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="O31" s="151"/>
-      <c r="P31" s="151" t="s">
+      <c r="O31" s="163"/>
+      <c r="P31" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="Q31" s="145"/>
-      <c r="R31" s="151" t="s">
+      <c r="Q31" s="153"/>
+      <c r="R31" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="S31" s="152" t="s">
+      <c r="S31" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="T31" s="163" t="s">
+      <c r="T31" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="U31" s="157" t="s">
+      <c r="U31" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="V31" s="157" t="s">
+      <c r="V31" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="W31" s="160"/>
-      <c r="X31" s="159"/>
-      <c r="Y31" s="160"/>
-      <c r="Z31" s="159"/>
-      <c r="AA31" s="159"/>
-      <c r="AB31" s="179"/>
+      <c r="W31" s="155"/>
+      <c r="X31" s="152"/>
+      <c r="Y31" s="155"/>
+      <c r="Z31" s="152"/>
+      <c r="AA31" s="152"/>
+      <c r="AB31" s="131"/>
       <c r="AC31" s="32"/>
-      <c r="AD31" s="142"/>
-      <c r="AE31" s="141" t="s">
+      <c r="AD31" s="145"/>
+      <c r="AE31" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="AF31" s="141" t="s">
+      <c r="AF31" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="AG31" s="141" t="s">
+      <c r="AG31" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="AH31" s="141" t="s">
+      <c r="AH31" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="AI31" s="178"/>
-      <c r="AJ31" s="178"/>
-      <c r="AK31" s="140" t="s">
+      <c r="AI31" s="149"/>
+      <c r="AJ31" s="149"/>
+      <c r="AK31" s="172" t="s">
         <v>102</v>
       </c>
-      <c r="AL31" s="140" t="s">
+      <c r="AL31" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="AM31" s="140" t="s">
+      <c r="AM31" s="172" t="s">
         <v>102</v>
       </c>
-      <c r="AN31" s="140" t="s">
+      <c r="AN31" s="172" t="s">
         <v>103</v>
       </c>
       <c r="AO31" s="45"/>
-      <c r="AP31" s="167" t="s">
+      <c r="AP31" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="AQ31" s="169" t="s">
+      <c r="AQ31" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="AR31" s="170"/>
-      <c r="AS31" s="171" t="s">
+      <c r="AR31" s="139"/>
+      <c r="AS31" s="140" t="s">
         <v>129</v>
       </c>
-      <c r="AT31" s="172"/>
-      <c r="AU31" s="173" t="s">
+      <c r="AT31" s="141"/>
+      <c r="AU31" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="AV31" s="174"/>
-      <c r="AW31" s="167" t="s">
+      <c r="AV31" s="143"/>
+      <c r="AW31" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="AX31" s="169" t="s">
+      <c r="AX31" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="AY31" s="170"/>
-      <c r="AZ31" s="171" t="s">
+      <c r="AY31" s="139"/>
+      <c r="AZ31" s="140" t="s">
         <v>129</v>
       </c>
-      <c r="BA31" s="172"/>
-      <c r="BB31" s="173" t="s">
+      <c r="BA31" s="141"/>
+      <c r="BB31" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="BC31" s="174"/>
+      <c r="BC31" s="143"/>
     </row>
     <row r="32" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="150"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="161" t="s">
+      <c r="A32" s="154"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="162"/>
-      <c r="H32" s="155" t="s">
+      <c r="G32" s="157"/>
+      <c r="H32" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="I32" s="153" t="s">
+      <c r="I32" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="J32" s="154"/>
-      <c r="K32" s="156" t="s">
+      <c r="J32" s="166"/>
+      <c r="K32" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="L32" s="146"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="155" t="s">
+      <c r="L32" s="161"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="O32" s="155" t="s">
+      <c r="O32" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="P32" s="156" t="s">
+      <c r="P32" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="Q32" s="156" t="s">
+      <c r="Q32" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="R32" s="151"/>
-      <c r="S32" s="152"/>
-      <c r="T32" s="163"/>
-      <c r="U32" s="157"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="160"/>
-      <c r="X32" s="159"/>
-      <c r="Y32" s="160"/>
-      <c r="Z32" s="159"/>
-      <c r="AA32" s="159"/>
-      <c r="AB32" s="179"/>
+      <c r="R32" s="163"/>
+      <c r="S32" s="164"/>
+      <c r="T32" s="158"/>
+      <c r="U32" s="150"/>
+      <c r="V32" s="150"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="152"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="152"/>
+      <c r="AA32" s="152"/>
+      <c r="AB32" s="131"/>
       <c r="AC32" s="33"/>
-      <c r="AD32" s="142"/>
-      <c r="AE32" s="142"/>
-      <c r="AF32" s="142"/>
-      <c r="AG32" s="142"/>
-      <c r="AH32" s="142"/>
-      <c r="AI32" s="178"/>
-      <c r="AJ32" s="178"/>
-      <c r="AK32" s="140"/>
-      <c r="AL32" s="140"/>
-      <c r="AM32" s="140"/>
-      <c r="AN32" s="140"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="145"/>
+      <c r="AF32" s="145"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="145"/>
+      <c r="AI32" s="149"/>
+      <c r="AJ32" s="149"/>
+      <c r="AK32" s="172"/>
+      <c r="AL32" s="172"/>
+      <c r="AM32" s="172"/>
+      <c r="AN32" s="172"/>
       <c r="AO32" s="45"/>
-      <c r="AP32" s="168"/>
+      <c r="AP32" s="137"/>
       <c r="AQ32" s="52" t="s">
         <v>130</v>
       </c>
@@ -3022,7 +3016,7 @@
       <c r="AV32" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="AW32" s="168"/>
+      <c r="AW32" s="137"/>
       <c r="AX32" s="52" t="s">
         <v>130</v>
       </c>
@@ -3043,63 +3037,63 @@
       </c>
     </row>
     <row r="33" spans="1:66" s="4" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A33" s="145"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
+      <c r="A33" s="153"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
       <c r="F33" s="28" t="s">
         <v>91</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="146"/>
+      <c r="H33" s="161"/>
       <c r="I33" s="29" t="s">
         <v>91</v>
       </c>
       <c r="J33" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="147"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="147"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="145"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="158"/>
-      <c r="V33" s="158"/>
-      <c r="W33" s="145"/>
-      <c r="X33" s="145"/>
-      <c r="Y33" s="145"/>
-      <c r="Z33" s="145"/>
-      <c r="AA33" s="145"/>
-      <c r="AB33" s="180"/>
+      <c r="K33" s="159"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="159"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="159"/>
+      <c r="Q33" s="159"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="161"/>
+      <c r="T33" s="159"/>
+      <c r="U33" s="151"/>
+      <c r="V33" s="151"/>
+      <c r="W33" s="153"/>
+      <c r="X33" s="153"/>
+      <c r="Y33" s="153"/>
+      <c r="Z33" s="153"/>
+      <c r="AA33" s="153"/>
+      <c r="AB33" s="132"/>
       <c r="AC33" s="33"/>
-      <c r="AD33" s="142"/>
-      <c r="AE33" s="142"/>
-      <c r="AF33" s="142"/>
-      <c r="AG33" s="142"/>
-      <c r="AH33" s="142"/>
-      <c r="AI33" s="178"/>
-      <c r="AJ33" s="178"/>
-      <c r="AK33" s="140"/>
-      <c r="AL33" s="140"/>
-      <c r="AM33" s="140"/>
-      <c r="AN33" s="140"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="145"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="149"/>
+      <c r="AJ33" s="149"/>
+      <c r="AK33" s="172"/>
+      <c r="AL33" s="172"/>
+      <c r="AM33" s="172"/>
+      <c r="AN33" s="172"/>
       <c r="AO33" s="45"/>
-      <c r="AP33" s="168"/>
+      <c r="AP33" s="137"/>
       <c r="AQ33" s="52"/>
       <c r="AR33" s="53"/>
       <c r="AS33" s="54"/>
       <c r="AT33" s="55"/>
       <c r="AU33" s="56"/>
       <c r="AV33" s="57"/>
-      <c r="AW33" s="168"/>
+      <c r="AW33" s="137"/>
       <c r="AX33" s="52"/>
       <c r="AY33" s="53"/>
       <c r="AZ33" s="54"/>
@@ -3189,8 +3183,8 @@
       <c r="AA34" s="6">
         <v>27</v>
       </c>
-      <c r="AB34" s="181">
-        <v>27</v>
+      <c r="AB34" s="128">
+        <v>28</v>
       </c>
       <c r="AC34" s="34"/>
       <c r="AD34" s="44">
@@ -3354,9 +3348,9 @@
         <v>35</v>
       </c>
       <c r="AA35" s="125" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB35" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB35" s="129" t="s">
         <v>36</v>
       </c>
       <c r="AC35" s="35"/>
@@ -3456,10 +3450,10 @@
       <c r="BN35" s="16"/>
     </row>
     <row r="36" spans="1:66">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="144"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24" t="s">
@@ -3525,9 +3519,9 @@
         <v>40</v>
       </c>
       <c r="AA36" s="126" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB36" s="183" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB36" s="130" t="s">
         <v>41</v>
       </c>
       <c r="AC36" s="36"/>
@@ -3631,10 +3625,10 @@
       <c r="BN36" s="16"/>
     </row>
     <row r="37" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A37" s="148" t="s">
+      <c r="A37" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="149"/>
+      <c r="B37" s="170"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26" t="s">
@@ -3700,9 +3694,9 @@
         <v>40</v>
       </c>
       <c r="AA37" s="127" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB37" s="183" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB37" s="130" t="s">
         <v>41</v>
       </c>
       <c r="AC37" s="41"/>
@@ -3863,7 +3857,7 @@
     </row>
     <row r="39" spans="1:66" s="14" customFormat="1" ht="18.75">
       <c r="B39" s="97" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C39" s="97"/>
       <c r="D39" s="97"/>
@@ -3888,7 +3882,7 @@
     </row>
     <row r="40" spans="1:66" s="14" customFormat="1" ht="18.75" customHeight="1">
       <c r="B40" s="103" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C40" s="103"/>
       <c r="D40" s="103"/>
@@ -3909,7 +3903,7 @@
       <c r="T40" s="102"/>
       <c r="U40" s="102"/>
       <c r="V40" s="99" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AB40" s="91"/>
     </row>
@@ -3984,7 +3978,7 @@
     </row>
     <row r="44" spans="1:66" s="14" customFormat="1" ht="18.75">
       <c r="B44" s="97" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="97"/>
@@ -4009,7 +4003,7 @@
     </row>
     <row r="45" spans="1:66" s="14" customFormat="1" ht="18.75">
       <c r="B45" s="103" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C45" s="103"/>
       <c r="D45" s="97"/>
@@ -4030,7 +4024,7 @@
       <c r="T45" s="102"/>
       <c r="U45" s="102"/>
       <c r="V45" s="99" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AB45" s="91"/>
     </row>
@@ -4105,7 +4099,7 @@
     </row>
     <row r="49" spans="2:63" s="14" customFormat="1" ht="18.75">
       <c r="B49" s="103" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C49" s="103"/>
       <c r="D49" s="97"/>
@@ -4130,7 +4124,7 @@
     </row>
     <row r="50" spans="2:63" s="14" customFormat="1" ht="18.75">
       <c r="B50" s="103" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C50" s="103"/>
       <c r="D50" s="97"/>
@@ -4203,7 +4197,7 @@
       <c r="Q54" s="118"/>
       <c r="R54" s="116"/>
       <c r="T54" s="117"/>
-      <c r="U54" s="113" t="s">
+      <c r="U54" s="119" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4231,7 +4225,7 @@
         <v>20</v>
       </c>
       <c r="X55" s="113" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="2:63" s="113" customFormat="1" ht="15.75" customHeight="1">
@@ -4295,10 +4289,10 @@
       <c r="Q58" s="117"/>
       <c r="T58" s="116"/>
       <c r="U58" s="113" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="X58" s="113" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="2:63" s="113" customFormat="1" ht="15.75" customHeight="1">
@@ -4339,9 +4333,6 @@
       <c r="P60" s="116"/>
       <c r="Q60" s="116"/>
       <c r="T60" s="83"/>
-      <c r="U60" s="113" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="61" spans="2:63" s="113" customFormat="1" ht="15.75" customHeight="1">
       <c r="B61" s="116"/>
@@ -4354,13 +4345,10 @@
       <c r="I61" s="116"/>
       <c r="J61" s="116"/>
       <c r="K61" s="116"/>
-      <c r="U61" s="113" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="62" spans="2:63" s="113" customFormat="1" ht="18.75">
       <c r="B62" s="124" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C62" s="116"/>
       <c r="D62" s="116"/>
@@ -4373,10 +4361,10 @@
       <c r="K62" s="116"/>
       <c r="T62" s="83"/>
       <c r="U62" s="113" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y62" s="113" t="s">
         <v>182</v>
+      </c>
+      <c r="X62" s="113" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="2:63" s="113" customFormat="1" ht="18.75"/>
@@ -4435,6 +4423,59 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="69">
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="A11:AA11"/>
+    <mergeCell ref="A12:AA12"/>
+    <mergeCell ref="A27:AA27"/>
+    <mergeCell ref="A28:AA28"/>
+    <mergeCell ref="A29:AA29"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="A8:AA8"/>
+    <mergeCell ref="A9:AA9"/>
+    <mergeCell ref="A10:AA10"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="AE31:AE33"/>
+    <mergeCell ref="AF31:AF33"/>
+    <mergeCell ref="AG31:AG33"/>
+    <mergeCell ref="AH31:AH33"/>
+    <mergeCell ref="AK31:AK33"/>
+    <mergeCell ref="AL31:AL33"/>
+    <mergeCell ref="AM31:AM33"/>
+    <mergeCell ref="AN31:AN33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="R31:R33"/>
+    <mergeCell ref="S31:S33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="U31:U33"/>
+    <mergeCell ref="V31:V33"/>
+    <mergeCell ref="Z30:Z33"/>
+    <mergeCell ref="AA30:AA33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="W30:W33"/>
+    <mergeCell ref="X30:X33"/>
+    <mergeCell ref="Y30:Y33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="T31:T33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:K33"/>
     <mergeCell ref="AB30:AB33"/>
     <mergeCell ref="AW30:BC30"/>
     <mergeCell ref="AW31:AW33"/>
@@ -4451,59 +4492,6 @@
     <mergeCell ref="AG30:AH30"/>
     <mergeCell ref="AI30:AI33"/>
     <mergeCell ref="AJ30:AJ33"/>
-    <mergeCell ref="U31:U33"/>
-    <mergeCell ref="V31:V33"/>
-    <mergeCell ref="Z30:Z33"/>
-    <mergeCell ref="AA30:AA33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="W30:W33"/>
-    <mergeCell ref="X30:X33"/>
-    <mergeCell ref="Y30:Y33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="T31:T33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="R31:R33"/>
-    <mergeCell ref="S31:S33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AE31:AE33"/>
-    <mergeCell ref="AF31:AF33"/>
-    <mergeCell ref="AG31:AG33"/>
-    <mergeCell ref="AH31:AH33"/>
-    <mergeCell ref="AK31:AK33"/>
-    <mergeCell ref="AL31:AL33"/>
-    <mergeCell ref="AM31:AM33"/>
-    <mergeCell ref="AN31:AN33"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="A8:AA8"/>
-    <mergeCell ref="A9:AA9"/>
-    <mergeCell ref="A10:AA10"/>
-    <mergeCell ref="A11:AA11"/>
-    <mergeCell ref="A12:AA12"/>
-    <mergeCell ref="A27:AA27"/>
-    <mergeCell ref="A28:AA28"/>
-    <mergeCell ref="A29:AA29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
